--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Random/500nodes/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Jamming_test(Finished)/Random/500nodes/500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(Finished)\Random\Final\500nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Jamming_test(Finished)\Random\500nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3AE06B-6DA6-4C3B-91B5-F8A273AEE9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0027E73A-D7A4-4669-8179-A1088F818200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="V50" sqref="V50:V59"/>
     </sheetView>
   </sheetViews>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -1623,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>90346</v>
+        <v>105480</v>
       </c>
       <c r="R2" t="s">
         <v>8</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="T2">
         <f>Q2-H2</f>
-        <v>88306</v>
+        <v>103442</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>92373</v>
+        <v>107510</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -1683,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>156560</v>
+        <v>223503</v>
       </c>
       <c r="R3" t="s">
         <v>8</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T66" si="0">Q3-H3</f>
-        <v>64187</v>
+        <v>115993</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>158603</v>
+        <v>225547</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -1743,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>242430</v>
+        <v>325295</v>
       </c>
       <c r="R4" t="s">
         <v>8</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>83827</v>
+        <v>99748</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1779,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>244472</v>
+        <v>327340</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
@@ -1803,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>315770</v>
+        <v>444548</v>
       </c>
       <c r="R5" t="s">
         <v>8</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>71298</v>
+        <v>117208</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1839,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>317811</v>
+        <v>446577</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -1863,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>377684</v>
+        <v>541724</v>
       </c>
       <c r="R6" t="s">
         <v>8</v>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>59873</v>
+        <v>95147</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>379724</v>
+        <v>543752</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>442756</v>
+        <v>645185</v>
       </c>
       <c r="R7" t="s">
         <v>8</v>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>63032</v>
+        <v>101433</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>444795</v>
+        <v>647227</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="Q8">
-        <v>577363</v>
+        <v>747934</v>
       </c>
       <c r="R8" t="s">
         <v>8</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>132568</v>
+        <v>100707</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -2019,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>579400</v>
+        <v>749974</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
@@ -2043,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>638306</v>
+        <v>854053</v>
       </c>
       <c r="R9" t="s">
         <v>8</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>58906</v>
+        <v>104079</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -2079,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>640350</v>
+        <v>856094</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="Q10">
-        <v>699865</v>
+        <v>956594</v>
       </c>
       <c r="R10" t="s">
         <v>8</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>59515</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>701889</v>
+        <v>958636</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -2163,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>784944</v>
+        <v>1070114</v>
       </c>
       <c r="R11" t="s">
         <v>8</v>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>83055</v>
+        <v>111478</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="T12" s="2">
         <f>AVERAGE(T2:T11)</f>
-        <v>76456.7</v>
+        <v>104973.5</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2217,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>2010</v>
+        <v>2038</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
@@ -2241,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="Q13">
-        <v>35133</v>
+        <v>61361</v>
       </c>
       <c r="R13" t="s">
         <v>8</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>33123</v>
+        <v>59323</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>37169</v>
+        <v>63398</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="Q14">
-        <v>77490</v>
+        <v>124782</v>
       </c>
       <c r="R14" t="s">
         <v>8</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>40321</v>
+        <v>61384</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>79527</v>
+        <v>126821</v>
       </c>
       <c r="I15" t="s">
         <v>6</v>
@@ -2361,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="Q15">
-        <v>117687</v>
+        <v>175214</v>
       </c>
       <c r="R15" t="s">
         <v>8</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>38160</v>
+        <v>48393</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -2397,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>119694</v>
+        <v>177249</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -2421,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="Q16">
-        <v>155984</v>
+        <v>235219</v>
       </c>
       <c r="R16" t="s">
         <v>8</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>36290</v>
+        <v>57970</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>157999</v>
+        <v>237251</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
@@ -2481,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>194392</v>
+        <v>307104</v>
       </c>
       <c r="R17" t="s">
         <v>8</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>36393</v>
+        <v>69853</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>196429</v>
+        <v>309143</v>
       </c>
       <c r="I18" t="s">
         <v>6</v>
@@ -2541,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="Q18">
-        <v>246262</v>
+        <v>379245</v>
       </c>
       <c r="R18" t="s">
         <v>8</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>49833</v>
+        <v>70102</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -2577,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>248296</v>
+        <v>381282</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -2601,7 +2601,7 @@
         <v>7</v>
       </c>
       <c r="Q19">
-        <v>295486</v>
+        <v>445911</v>
       </c>
       <c r="R19" t="s">
         <v>8</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>47190</v>
+        <v>64629</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>297504</v>
+        <v>447950</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
@@ -2661,7 +2661,7 @@
         <v>7</v>
       </c>
       <c r="Q20">
-        <v>334708</v>
+        <v>506697</v>
       </c>
       <c r="R20" t="s">
         <v>8</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>37204</v>
+        <v>58747</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -2697,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>336745</v>
+        <v>508729</v>
       </c>
       <c r="I21" t="s">
         <v>6</v>
@@ -2721,7 +2721,7 @@
         <v>7</v>
       </c>
       <c r="Q21">
-        <v>377359</v>
+        <v>564204</v>
       </c>
       <c r="R21" t="s">
         <v>8</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
-        <v>40614</v>
+        <v>55475</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -2757,7 +2757,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>379377</v>
+        <v>566241</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -2781,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="Q22">
-        <v>418307</v>
+        <v>625001</v>
       </c>
       <c r="R22" t="s">
         <v>8</v>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>38930</v>
+        <v>58760</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="T23" s="2">
         <f>AVERAGE(T13:T22)</f>
-        <v>39805.800000000003</v>
+        <v>60463.6</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2835,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="Q24">
-        <v>26199</v>
+        <v>47049</v>
       </c>
       <c r="R24" t="s">
         <v>8</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>24179</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2895,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>28195</v>
+        <v>49062</v>
       </c>
       <c r="I25" t="s">
         <v>6</v>
@@ -2919,7 +2919,7 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>50329</v>
+        <v>91268</v>
       </c>
       <c r="R25" t="s">
         <v>8</v>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>22134</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -2955,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>52366</v>
+        <v>93301</v>
       </c>
       <c r="I26" t="s">
         <v>6</v>
@@ -2979,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="Q26">
-        <v>77724</v>
+        <v>130994</v>
       </c>
       <c r="R26" t="s">
         <v>8</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>25358</v>
+        <v>37693</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="H27">
-        <v>79758</v>
+        <v>133030</v>
       </c>
       <c r="I27" t="s">
         <v>6</v>
@@ -3039,7 +3039,7 @@
         <v>7</v>
       </c>
       <c r="Q27">
-        <v>111453</v>
+        <v>180577</v>
       </c>
       <c r="R27" t="s">
         <v>8</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>31695</v>
+        <v>47547</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -3075,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>113480</v>
+        <v>182609</v>
       </c>
       <c r="I28" t="s">
         <v>6</v>
@@ -3099,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="Q28">
-        <v>141739</v>
+        <v>220282</v>
       </c>
       <c r="R28" t="s">
         <v>8</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>28259</v>
+        <v>37673</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>5</v>
       </c>
       <c r="H29">
-        <v>143759</v>
+        <v>222315</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -3159,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="Q29">
-        <v>170263</v>
+        <v>265934</v>
       </c>
       <c r="R29" t="s">
         <v>8</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>26504</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>172293</v>
+        <v>267967</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
@@ -3219,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="Q30">
-        <v>194983</v>
+        <v>307578</v>
       </c>
       <c r="R30" t="s">
         <v>8</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>22690</v>
+        <v>39611</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -3255,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>197014</v>
+        <v>309609</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
@@ -3279,7 +3279,7 @@
         <v>7</v>
       </c>
       <c r="Q31">
-        <v>227436</v>
+        <v>359017</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>30422</v>
+        <v>49408</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="H32">
-        <v>229473</v>
+        <v>361047</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
@@ -3339,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="Q32">
-        <v>251262</v>
+        <v>409936</v>
       </c>
       <c r="R32" t="s">
         <v>8</v>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="0"/>
-        <v>21789</v>
+        <v>48889</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -3375,7 +3375,7 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>253297</v>
+        <v>411963</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
@@ -3399,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <v>278383</v>
+        <v>454656</v>
       </c>
       <c r="R33" t="s">
         <v>8</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>25086</v>
+        <v>42693</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="T34" s="2">
         <f>AVERAGE(T24:T33)</f>
-        <v>25811.599999999999</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -3453,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="I35" t="s">
         <v>6</v>
@@ -3477,7 +3477,7 @@
         <v>7</v>
       </c>
       <c r="Q35">
-        <v>22348</v>
+        <v>39053</v>
       </c>
       <c r="R35" t="s">
         <v>8</v>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="T35">
         <f t="shared" si="0"/>
-        <v>20341</v>
+        <v>37045</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>24381</v>
+        <v>41086</v>
       </c>
       <c r="I36" t="s">
         <v>6</v>
@@ -3537,7 +3537,7 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <v>47672</v>
+        <v>74984</v>
       </c>
       <c r="R36" t="s">
         <v>8</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="T36">
         <f t="shared" si="0"/>
-        <v>23291</v>
+        <v>33898</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3573,7 +3573,7 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>49703</v>
+        <v>77015</v>
       </c>
       <c r="I37" t="s">
         <v>6</v>
@@ -3597,7 +3597,7 @@
         <v>7</v>
       </c>
       <c r="Q37">
-        <v>71415</v>
+        <v>110134</v>
       </c>
       <c r="R37" t="s">
         <v>8</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="T37">
         <f t="shared" si="0"/>
-        <v>21712</v>
+        <v>33119</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -3633,7 +3633,7 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>73446</v>
+        <v>112162</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
@@ -3657,7 +3657,7 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>93702</v>
+        <v>144772</v>
       </c>
       <c r="R38" t="s">
         <v>8</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>20256</v>
+        <v>32610</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <v>95726</v>
+        <v>146794</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -3717,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>115104</v>
+        <v>178863</v>
       </c>
       <c r="R39" t="s">
         <v>8</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>19378</v>
+        <v>32069</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="H40">
-        <v>117134</v>
+        <v>180896</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
@@ -3777,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>150796</v>
+        <v>214267</v>
       </c>
       <c r="R40" t="s">
         <v>8</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="T40">
         <f t="shared" si="0"/>
-        <v>33662</v>
+        <v>33371</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -3813,7 +3813,7 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>152826</v>
+        <v>216295</v>
       </c>
       <c r="I41" t="s">
         <v>6</v>
@@ -3837,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="Q41">
-        <v>176424</v>
+        <v>252000</v>
       </c>
       <c r="R41" t="s">
         <v>8</v>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="T41">
         <f t="shared" si="0"/>
-        <v>23598</v>
+        <v>35705</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>178454</v>
+        <v>254030</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
@@ -3897,7 +3897,7 @@
         <v>7</v>
       </c>
       <c r="Q42">
-        <v>202417</v>
+        <v>287217</v>
       </c>
       <c r="R42" t="s">
         <v>8</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="T42">
         <f t="shared" si="0"/>
-        <v>23963</v>
+        <v>33187</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -3933,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <v>204454</v>
+        <v>289225</v>
       </c>
       <c r="I43" t="s">
         <v>6</v>
@@ -3957,7 +3957,7 @@
         <v>7</v>
       </c>
       <c r="Q43">
-        <v>229325</v>
+        <v>324215</v>
       </c>
       <c r="R43" t="s">
         <v>8</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="T43">
         <f t="shared" si="0"/>
-        <v>24871</v>
+        <v>34990</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>5</v>
       </c>
       <c r="H44">
-        <v>231357</v>
+        <v>326235</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
@@ -4017,7 +4017,7 @@
         <v>7</v>
       </c>
       <c r="Q44">
-        <v>250609</v>
+        <v>359516</v>
       </c>
       <c r="R44" t="s">
         <v>8</v>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="T44">
         <f t="shared" si="0"/>
-        <v>19252</v>
+        <v>33281</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="T45" s="2">
         <f>AVERAGE(T35:T44)</f>
-        <v>23032.400000000001</v>
+        <v>33927.5</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>2037</v>
+        <v>2006</v>
       </c>
       <c r="I46" t="s">
         <v>6</v>
@@ -4095,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="Q46">
-        <v>19645</v>
+        <v>31933</v>
       </c>
       <c r="R46" t="s">
         <v>8</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="T46">
         <f t="shared" si="0"/>
-        <v>17608</v>
+        <v>29927</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -4131,7 +4131,7 @@
         <v>5</v>
       </c>
       <c r="H47">
-        <v>21661</v>
+        <v>33953</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -4155,7 +4155,7 @@
         <v>7</v>
       </c>
       <c r="Q47">
-        <v>42729</v>
+        <v>61876</v>
       </c>
       <c r="R47" t="s">
         <v>8</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="T47">
         <f t="shared" si="0"/>
-        <v>21068</v>
+        <v>27923</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="H48">
-        <v>44747</v>
+        <v>63902</v>
       </c>
       <c r="I48" t="s">
         <v>6</v>
@@ -4215,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="Q48">
-        <v>64412</v>
+        <v>91032</v>
       </c>
       <c r="R48" t="s">
         <v>8</v>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="T48">
         <f t="shared" si="0"/>
-        <v>19665</v>
+        <v>27130</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -4251,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="H49">
-        <v>66430</v>
+        <v>93055</v>
       </c>
       <c r="I49" t="s">
         <v>6</v>
@@ -4275,7 +4275,7 @@
         <v>7</v>
       </c>
       <c r="Q49">
-        <v>81883</v>
+        <v>116199</v>
       </c>
       <c r="R49" t="s">
         <v>8</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="T49">
         <f t="shared" si="0"/>
-        <v>15453</v>
+        <v>23144</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="H50">
-        <v>83903</v>
+        <v>118201</v>
       </c>
       <c r="I50" t="s">
         <v>6</v>
@@ -4335,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="Q50">
-        <v>106408</v>
+        <v>144664</v>
       </c>
       <c r="R50" t="s">
         <v>8</v>
@@ -4345,11 +4345,11 @@
       </c>
       <c r="T50">
         <f t="shared" si="0"/>
-        <v>22505</v>
+        <v>26463</v>
       </c>
       <c r="V50">
         <f>T12</f>
-        <v>76456.7</v>
+        <v>104973.5</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>108431</v>
+        <v>146688</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -4399,7 +4399,7 @@
         <v>7</v>
       </c>
       <c r="Q51">
-        <v>124378</v>
+        <v>173037</v>
       </c>
       <c r="R51" t="s">
         <v>8</v>
@@ -4409,11 +4409,11 @@
       </c>
       <c r="T51">
         <f t="shared" si="0"/>
-        <v>15947</v>
+        <v>26349</v>
       </c>
       <c r="V51">
         <f>T23</f>
-        <v>39805.800000000003</v>
+        <v>60463.6</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -4439,7 +4439,7 @@
         <v>5</v>
       </c>
       <c r="H52">
-        <v>126412</v>
+        <v>175044</v>
       </c>
       <c r="I52" t="s">
         <v>6</v>
@@ -4463,7 +4463,7 @@
         <v>7</v>
       </c>
       <c r="Q52">
-        <v>148185</v>
+        <v>198485</v>
       </c>
       <c r="R52" t="s">
         <v>8</v>
@@ -4473,11 +4473,11 @@
       </c>
       <c r="T52">
         <f t="shared" si="0"/>
-        <v>21773</v>
+        <v>23441</v>
       </c>
       <c r="V52">
         <f>T34</f>
-        <v>25811.599999999999</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="H53">
-        <v>150207</v>
+        <v>200502</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
@@ -4527,7 +4527,7 @@
         <v>7</v>
       </c>
       <c r="Q53">
-        <v>174305</v>
+        <v>227180</v>
       </c>
       <c r="R53" t="s">
         <v>8</v>
@@ -4537,11 +4537,11 @@
       </c>
       <c r="T53">
         <f t="shared" si="0"/>
-        <v>24098</v>
+        <v>26678</v>
       </c>
       <c r="V53">
         <f>T45</f>
-        <v>23032.400000000001</v>
+        <v>33927.5</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="H54">
-        <v>176326</v>
+        <v>229207</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
@@ -4591,7 +4591,7 @@
         <v>7</v>
       </c>
       <c r="Q54">
-        <v>190644</v>
+        <v>256002</v>
       </c>
       <c r="R54" t="s">
         <v>8</v>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="T54">
         <f t="shared" si="0"/>
-        <v>14318</v>
+        <v>26795</v>
       </c>
       <c r="V54">
         <f>T56</f>
-        <v>19203.599999999999</v>
+        <v>26189.1</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>192667</v>
+        <v>258029</v>
       </c>
       <c r="I55" t="s">
         <v>6</v>
@@ -4655,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="Q55">
-        <v>212268</v>
+        <v>282070</v>
       </c>
       <c r="R55" t="s">
         <v>8</v>
@@ -4665,11 +4665,11 @@
       </c>
       <c r="T55">
         <f t="shared" si="0"/>
-        <v>19601</v>
+        <v>24041</v>
       </c>
       <c r="V55">
         <f>T67</f>
-        <v>14142.5</v>
+        <v>22037.200000000001</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -4687,11 +4687,11 @@
       </c>
       <c r="T56" s="2">
         <f>AVERAGE(T46:T55)</f>
-        <v>19203.599999999999</v>
+        <v>26189.1</v>
       </c>
       <c r="V56">
         <f>T78</f>
-        <v>15768.5</v>
+        <v>21141.9</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -4717,7 +4717,7 @@
         <v>5</v>
       </c>
       <c r="H57">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -4741,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="Q57">
-        <v>19384</v>
+        <v>22960</v>
       </c>
       <c r="R57" t="s">
         <v>8</v>
@@ -4751,11 +4751,11 @@
       </c>
       <c r="T57">
         <f t="shared" si="0"/>
-        <v>17371</v>
+        <v>20968</v>
       </c>
       <c r="V57">
         <f>T89</f>
-        <v>12142.2</v>
+        <v>18922.3</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -4781,7 +4781,7 @@
         <v>5</v>
       </c>
       <c r="H58">
-        <v>21402</v>
+        <v>24984</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
@@ -4805,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="Q58">
-        <v>40341</v>
+        <v>48642</v>
       </c>
       <c r="R58" t="s">
         <v>8</v>
@@ -4815,11 +4815,11 @@
       </c>
       <c r="T58">
         <f t="shared" si="0"/>
-        <v>18939</v>
+        <v>23658</v>
       </c>
       <c r="V58">
         <f>T100</f>
-        <v>11105.5</v>
+        <v>16713.599999999999</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -4845,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="H59">
-        <v>42350</v>
+        <v>50667</v>
       </c>
       <c r="I59" t="s">
         <v>6</v>
@@ -4869,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="Q59">
-        <v>54500</v>
+        <v>77176</v>
       </c>
       <c r="R59" t="s">
         <v>8</v>
@@ -4879,11 +4879,11 @@
       </c>
       <c r="T59">
         <f t="shared" si="0"/>
-        <v>12150</v>
+        <v>26509</v>
       </c>
       <c r="V59">
         <f>T111</f>
-        <v>10368</v>
+        <v>15081.5</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -4909,7 +4909,7 @@
         <v>5</v>
       </c>
       <c r="H60">
-        <v>56514</v>
+        <v>79201</v>
       </c>
       <c r="I60" t="s">
         <v>6</v>
@@ -4933,7 +4933,7 @@
         <v>7</v>
       </c>
       <c r="Q60">
-        <v>69884</v>
+        <v>100526</v>
       </c>
       <c r="R60" t="s">
         <v>8</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="T60">
         <f t="shared" si="0"/>
-        <v>13370</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -4969,7 +4969,7 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>71903</v>
+        <v>102540</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -4993,7 +4993,7 @@
         <v>7</v>
       </c>
       <c r="Q61">
-        <v>85595</v>
+        <v>122168</v>
       </c>
       <c r="R61" t="s">
         <v>8</v>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="T61">
         <f t="shared" si="0"/>
-        <v>13692</v>
+        <v>19628</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
@@ -5029,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="H62">
-        <v>87576</v>
+        <v>124170</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
@@ -5053,7 +5053,7 @@
         <v>7</v>
       </c>
       <c r="Q62">
-        <v>101730</v>
+        <v>146297</v>
       </c>
       <c r="R62" t="s">
         <v>8</v>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="T62">
         <f t="shared" si="0"/>
-        <v>14154</v>
+        <v>22127</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
@@ -5089,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="H63">
-        <v>103750</v>
+        <v>148318</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
@@ -5113,7 +5113,7 @@
         <v>7</v>
       </c>
       <c r="Q63">
-        <v>118495</v>
+        <v>168135</v>
       </c>
       <c r="R63" t="s">
         <v>8</v>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="T63">
         <f t="shared" si="0"/>
-        <v>14745</v>
+        <v>19817</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -5149,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="H64">
-        <v>120508</v>
+        <v>170161</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
@@ -5173,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="Q64">
-        <v>133671</v>
+        <v>191855</v>
       </c>
       <c r="R64" t="s">
         <v>8</v>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="T64">
         <f t="shared" si="0"/>
-        <v>13163</v>
+        <v>21694</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -5209,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="H65">
-        <v>135660</v>
+        <v>193872</v>
       </c>
       <c r="I65" t="s">
         <v>6</v>
@@ -5233,7 +5233,7 @@
         <v>7</v>
       </c>
       <c r="Q65">
-        <v>147560</v>
+        <v>217252</v>
       </c>
       <c r="R65" t="s">
         <v>8</v>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="T65">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>23380</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>149575</v>
+        <v>219274</v>
       </c>
       <c r="I66" t="s">
         <v>6</v>
@@ -5293,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="Q66">
-        <v>161516</v>
+        <v>240540</v>
       </c>
       <c r="R66" t="s">
         <v>8</v>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="T66">
         <f t="shared" si="0"/>
-        <v>11941</v>
+        <v>21266</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="T67" s="2">
         <f>AVERAGE(T57:T66)</f>
-        <v>14142.5</v>
+        <v>22037.200000000001</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -5347,7 +5347,7 @@
         <v>5</v>
       </c>
       <c r="H68">
-        <v>2035</v>
+        <v>2007</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
@@ -5371,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="Q68">
-        <v>19536</v>
+        <v>20909</v>
       </c>
       <c r="R68" t="s">
         <v>8</v>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="T68">
         <f t="shared" ref="T68:T110" si="1">Q68-H68</f>
-        <v>17501</v>
+        <v>18902</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>5</v>
       </c>
       <c r="H69">
-        <v>21554</v>
+        <v>22863</v>
       </c>
       <c r="I69" t="s">
         <v>6</v>
@@ -5431,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="Q69">
-        <v>39666</v>
+        <v>47541</v>
       </c>
       <c r="R69" t="s">
         <v>8</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="T69">
         <f t="shared" si="1"/>
-        <v>18112</v>
+        <v>24678</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -5467,7 +5467,7 @@
         <v>5</v>
       </c>
       <c r="H70">
-        <v>41691</v>
+        <v>49556</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -5491,7 +5491,7 @@
         <v>7</v>
       </c>
       <c r="Q70">
-        <v>56307</v>
+        <v>66434</v>
       </c>
       <c r="R70" t="s">
         <v>8</v>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="T70">
         <f t="shared" si="1"/>
-        <v>14616</v>
+        <v>16878</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>58304</v>
+        <v>68388</v>
       </c>
       <c r="I71" t="s">
         <v>6</v>
@@ -5551,7 +5551,7 @@
         <v>7</v>
       </c>
       <c r="Q71">
-        <v>74461</v>
+        <v>88672</v>
       </c>
       <c r="R71" t="s">
         <v>8</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="T71">
         <f t="shared" si="1"/>
-        <v>16157</v>
+        <v>20284</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -5587,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="H72">
-        <v>76472</v>
+        <v>90694</v>
       </c>
       <c r="I72" t="s">
         <v>6</v>
@@ -5611,7 +5611,7 @@
         <v>7</v>
       </c>
       <c r="Q72">
-        <v>91217</v>
+        <v>112436</v>
       </c>
       <c r="R72" t="s">
         <v>8</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="T72">
         <f t="shared" si="1"/>
-        <v>14745</v>
+        <v>21742</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>5</v>
       </c>
       <c r="H73">
-        <v>93228</v>
+        <v>114436</v>
       </c>
       <c r="I73" t="s">
         <v>6</v>
@@ -5671,7 +5671,7 @@
         <v>7</v>
       </c>
       <c r="Q73">
-        <v>108191</v>
+        <v>132617</v>
       </c>
       <c r="R73" t="s">
         <v>8</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="T73">
         <f t="shared" si="1"/>
-        <v>14963</v>
+        <v>18181</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -5707,7 +5707,7 @@
         <v>5</v>
       </c>
       <c r="H74">
-        <v>110199</v>
+        <v>134610</v>
       </c>
       <c r="I74" t="s">
         <v>6</v>
@@ -5731,7 +5731,7 @@
         <v>7</v>
       </c>
       <c r="Q74">
-        <v>123921</v>
+        <v>154998</v>
       </c>
       <c r="R74" t="s">
         <v>8</v>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="T74">
         <f t="shared" si="1"/>
-        <v>13722</v>
+        <v>20388</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="H75">
-        <v>125923</v>
+        <v>157011</v>
       </c>
       <c r="I75" t="s">
         <v>6</v>
@@ -5791,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="Q75">
-        <v>139780</v>
+        <v>179385</v>
       </c>
       <c r="R75" t="s">
         <v>8</v>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="T75">
         <f t="shared" si="1"/>
-        <v>13857</v>
+        <v>22374</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -5827,7 +5827,7 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>141788</v>
+        <v>181393</v>
       </c>
       <c r="I76" t="s">
         <v>6</v>
@@ -5851,7 +5851,7 @@
         <v>7</v>
       </c>
       <c r="Q76">
-        <v>157524</v>
+        <v>201724</v>
       </c>
       <c r="R76" t="s">
         <v>8</v>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="T76">
         <f t="shared" si="1"/>
-        <v>15736</v>
+        <v>20331</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <v>159536</v>
+        <v>203697</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
@@ -5911,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="Q77">
-        <v>177812</v>
+        <v>231358</v>
       </c>
       <c r="R77" t="s">
         <v>8</v>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="T77">
         <f t="shared" si="1"/>
-        <v>18276</v>
+        <v>27661</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="T78" s="2">
         <f>AVERAGE(T68:T77)</f>
-        <v>15768.5</v>
+        <v>21141.9</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -5965,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="H79">
-        <v>1997</v>
+        <v>2021</v>
       </c>
       <c r="I79" t="s">
         <v>6</v>
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="Q79">
-        <v>14855</v>
+        <v>20635</v>
       </c>
       <c r="R79" t="s">
         <v>8</v>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="T79">
         <f t="shared" si="1"/>
-        <v>12858</v>
+        <v>18614</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -6025,7 +6025,7 @@
         <v>5</v>
       </c>
       <c r="H80">
-        <v>16862</v>
+        <v>22648</v>
       </c>
       <c r="I80" t="s">
         <v>6</v>
@@ -6049,7 +6049,7 @@
         <v>7</v>
       </c>
       <c r="Q80">
-        <v>26014</v>
+        <v>38852</v>
       </c>
       <c r="R80" t="s">
         <v>8</v>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="T80">
         <f t="shared" si="1"/>
-        <v>9152</v>
+        <v>16204</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -6085,7 +6085,7 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>28032</v>
+        <v>40842</v>
       </c>
       <c r="I81" t="s">
         <v>6</v>
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="Q81">
-        <v>44128</v>
+        <v>60135</v>
       </c>
       <c r="R81" t="s">
         <v>8</v>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="T81">
         <f t="shared" si="1"/>
-        <v>16096</v>
+        <v>19293</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -6145,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>46141</v>
+        <v>62146</v>
       </c>
       <c r="I82" t="s">
         <v>6</v>
@@ -6169,7 +6169,7 @@
         <v>7</v>
       </c>
       <c r="Q82">
-        <v>56663</v>
+        <v>79317</v>
       </c>
       <c r="R82" t="s">
         <v>8</v>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="T82">
         <f t="shared" si="1"/>
-        <v>10522</v>
+        <v>17171</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -6205,7 +6205,7 @@
         <v>5</v>
       </c>
       <c r="H83">
-        <v>58642</v>
+        <v>81324</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
@@ -6229,7 +6229,7 @@
         <v>7</v>
       </c>
       <c r="Q83">
-        <v>75096</v>
+        <v>105730</v>
       </c>
       <c r="R83" t="s">
         <v>8</v>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="T83">
         <f t="shared" si="1"/>
-        <v>16454</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -6265,7 +6265,7 @@
         <v>5</v>
       </c>
       <c r="H84">
-        <v>77102</v>
+        <v>107740</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
@@ -6289,7 +6289,7 @@
         <v>7</v>
       </c>
       <c r="Q84">
-        <v>88288</v>
+        <v>124760</v>
       </c>
       <c r="R84" t="s">
         <v>8</v>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="T84">
         <f t="shared" si="1"/>
-        <v>11186</v>
+        <v>17020</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -6325,7 +6325,7 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <v>90291</v>
+        <v>126775</v>
       </c>
       <c r="I85" t="s">
         <v>6</v>
@@ -6349,7 +6349,7 @@
         <v>7</v>
       </c>
       <c r="Q85">
-        <v>102180</v>
+        <v>145314</v>
       </c>
       <c r="R85" t="s">
         <v>8</v>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="T85">
         <f t="shared" si="1"/>
-        <v>11889</v>
+        <v>18539</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>104159</v>
+        <v>147261</v>
       </c>
       <c r="I86" t="s">
         <v>6</v>
@@ -6409,7 +6409,7 @@
         <v>7</v>
       </c>
       <c r="Q86">
-        <v>114347</v>
+        <v>169980</v>
       </c>
       <c r="R86" t="s">
         <v>8</v>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="T86">
         <f t="shared" si="1"/>
-        <v>10188</v>
+        <v>22719</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -6445,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="H87">
-        <v>116363</v>
+        <v>171953</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
@@ -6469,7 +6469,7 @@
         <v>7</v>
       </c>
       <c r="Q87">
-        <v>125877</v>
+        <v>190245</v>
       </c>
       <c r="R87" t="s">
         <v>8</v>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="T87">
         <f t="shared" si="1"/>
-        <v>9514</v>
+        <v>18292</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -6505,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="H88">
-        <v>127886</v>
+        <v>192235</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
@@ -6529,7 +6529,7 @@
         <v>7</v>
       </c>
       <c r="Q88">
-        <v>141449</v>
+        <v>209200</v>
       </c>
       <c r="R88" t="s">
         <v>8</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="T88">
         <f t="shared" si="1"/>
-        <v>13563</v>
+        <v>16965</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="T89" s="2">
         <f>AVERAGE(T79:T88)</f>
-        <v>12142.2</v>
+        <v>18922.3</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>5</v>
       </c>
       <c r="H90">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="I90" t="s">
         <v>6</v>
@@ -6607,7 +6607,7 @@
         <v>7</v>
       </c>
       <c r="Q90">
-        <v>12608</v>
+        <v>18198</v>
       </c>
       <c r="R90" t="s">
         <v>8</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="T90">
         <f t="shared" si="1"/>
-        <v>10624</v>
+        <v>16188</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -6643,7 +6643,7 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>14607</v>
+        <v>20161</v>
       </c>
       <c r="I91" t="s">
         <v>6</v>
@@ -6667,7 +6667,7 @@
         <v>7</v>
       </c>
       <c r="Q91">
-        <v>24083</v>
+        <v>42114</v>
       </c>
       <c r="R91" t="s">
         <v>8</v>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="T91">
         <f t="shared" si="1"/>
-        <v>9476</v>
+        <v>21953</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>5</v>
       </c>
       <c r="H92">
-        <v>26093</v>
+        <v>44130</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
@@ -6727,7 +6727,7 @@
         <v>7</v>
       </c>
       <c r="Q92">
-        <v>36537</v>
+        <v>58416</v>
       </c>
       <c r="R92" t="s">
         <v>8</v>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="T92">
         <f t="shared" si="1"/>
-        <v>10444</v>
+        <v>14286</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -6763,7 +6763,7 @@
         <v>5</v>
       </c>
       <c r="H93">
-        <v>38542</v>
+        <v>60414</v>
       </c>
       <c r="I93" t="s">
         <v>6</v>
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
       <c r="Q93">
-        <v>52015</v>
+        <v>79868</v>
       </c>
       <c r="R93" t="s">
         <v>8</v>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="T93">
         <f t="shared" si="1"/>
-        <v>13473</v>
+        <v>19454</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>5</v>
       </c>
       <c r="H94">
-        <v>54006</v>
+        <v>81872</v>
       </c>
       <c r="I94" t="s">
         <v>6</v>
@@ -6847,7 +6847,7 @@
         <v>7</v>
       </c>
       <c r="Q94">
-        <v>64548</v>
+        <v>98109</v>
       </c>
       <c r="R94" t="s">
         <v>8</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="T94">
         <f t="shared" si="1"/>
-        <v>10542</v>
+        <v>16237</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -6883,7 +6883,7 @@
         <v>5</v>
       </c>
       <c r="H95">
-        <v>66558</v>
+        <v>100083</v>
       </c>
       <c r="I95" t="s">
         <v>6</v>
@@ -6907,7 +6907,7 @@
         <v>7</v>
       </c>
       <c r="Q95">
-        <v>81541</v>
+        <v>113896</v>
       </c>
       <c r="R95" t="s">
         <v>8</v>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="T95">
         <f t="shared" si="1"/>
-        <v>14983</v>
+        <v>13813</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>83558</v>
+        <v>115900</v>
       </c>
       <c r="I96" t="s">
         <v>6</v>
@@ -6967,7 +6967,7 @@
         <v>7</v>
       </c>
       <c r="Q96">
-        <v>92206</v>
+        <v>130707</v>
       </c>
       <c r="R96" t="s">
         <v>8</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="T96">
         <f t="shared" si="1"/>
-        <v>8648</v>
+        <v>14807</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -7003,7 +7003,7 @@
         <v>5</v>
       </c>
       <c r="H97">
-        <v>94223</v>
+        <v>132706</v>
       </c>
       <c r="I97" t="s">
         <v>6</v>
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="Q97">
-        <v>105549</v>
+        <v>153137</v>
       </c>
       <c r="R97" t="s">
         <v>8</v>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="T97">
         <f t="shared" si="1"/>
-        <v>11326</v>
+        <v>20431</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>5</v>
       </c>
       <c r="H98">
-        <v>107551</v>
+        <v>155140</v>
       </c>
       <c r="I98" t="s">
         <v>6</v>
@@ -7087,7 +7087,7 @@
         <v>7</v>
       </c>
       <c r="Q98">
-        <v>118187</v>
+        <v>168422</v>
       </c>
       <c r="R98" t="s">
         <v>8</v>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="T98">
         <f t="shared" si="1"/>
-        <v>10636</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -7123,7 +7123,7 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <v>120203</v>
+        <v>170414</v>
       </c>
       <c r="I99" t="s">
         <v>6</v>
@@ -7147,7 +7147,7 @@
         <v>7</v>
       </c>
       <c r="Q99">
-        <v>131106</v>
+        <v>187099</v>
       </c>
       <c r="R99" t="s">
         <v>8</v>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="T99">
         <f t="shared" si="1"/>
-        <v>10903</v>
+        <v>16685</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="T100" s="2">
         <f>AVERAGE(T90:T99)</f>
-        <v>11105.5</v>
+        <v>16713.599999999999</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -7201,7 +7201,7 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="I101" t="s">
         <v>6</v>
@@ -7225,7 +7225,7 @@
         <v>7</v>
       </c>
       <c r="Q101">
-        <v>17429</v>
+        <v>16520</v>
       </c>
       <c r="R101" t="s">
         <v>8</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="T101">
         <f t="shared" si="1"/>
-        <v>15453</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -7261,7 +7261,7 @@
         <v>5</v>
       </c>
       <c r="H102">
-        <v>19433</v>
+        <v>18474</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
@@ -7285,7 +7285,7 @@
         <v>7</v>
       </c>
       <c r="Q102">
-        <v>31490</v>
+        <v>35544</v>
       </c>
       <c r="R102" t="s">
         <v>8</v>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="T102">
         <f t="shared" si="1"/>
-        <v>12057</v>
+        <v>17070</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -7321,7 +7321,7 @@
         <v>5</v>
       </c>
       <c r="H103">
-        <v>33492</v>
+        <v>37535</v>
       </c>
       <c r="I103" t="s">
         <v>6</v>
@@ -7345,7 +7345,7 @@
         <v>7</v>
       </c>
       <c r="Q103">
-        <v>44914</v>
+        <v>51190</v>
       </c>
       <c r="R103" t="s">
         <v>8</v>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="T103">
         <f t="shared" si="1"/>
-        <v>11422</v>
+        <v>13655</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
@@ -7381,7 +7381,7 @@
         <v>5</v>
       </c>
       <c r="H104">
-        <v>46908</v>
+        <v>53195</v>
       </c>
       <c r="I104" t="s">
         <v>6</v>
@@ -7405,7 +7405,7 @@
         <v>7</v>
       </c>
       <c r="Q104">
-        <v>56953</v>
+        <v>70072</v>
       </c>
       <c r="R104" t="s">
         <v>8</v>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="T104">
         <f t="shared" si="1"/>
-        <v>10045</v>
+        <v>16877</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -7441,7 +7441,7 @@
         <v>5</v>
       </c>
       <c r="H105">
-        <v>58933</v>
+        <v>72072</v>
       </c>
       <c r="I105" t="s">
         <v>6</v>
@@ -7465,7 +7465,7 @@
         <v>7</v>
       </c>
       <c r="Q105">
-        <v>67543</v>
+        <v>87668</v>
       </c>
       <c r="R105" t="s">
         <v>8</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="T105">
         <f t="shared" si="1"/>
-        <v>8610</v>
+        <v>15596</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
@@ -7501,7 +7501,7 @@
         <v>5</v>
       </c>
       <c r="H106">
-        <v>69560</v>
+        <v>89683</v>
       </c>
       <c r="I106" t="s">
         <v>6</v>
@@ -7525,7 +7525,7 @@
         <v>7</v>
       </c>
       <c r="Q106">
-        <v>79659</v>
+        <v>105473</v>
       </c>
       <c r="R106" t="s">
         <v>8</v>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="T106">
         <f t="shared" si="1"/>
-        <v>10099</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
@@ -7561,7 +7561,7 @@
         <v>5</v>
       </c>
       <c r="H107">
-        <v>81662</v>
+        <v>107468</v>
       </c>
       <c r="I107" t="s">
         <v>6</v>
@@ -7585,7 +7585,7 @@
         <v>7</v>
       </c>
       <c r="Q107">
-        <v>91063</v>
+        <v>124235</v>
       </c>
       <c r="R107" t="s">
         <v>8</v>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="T107">
         <f t="shared" si="1"/>
-        <v>9401</v>
+        <v>16767</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
@@ -7621,7 +7621,7 @@
         <v>5</v>
       </c>
       <c r="H108">
-        <v>93068</v>
+        <v>126244</v>
       </c>
       <c r="I108" t="s">
         <v>6</v>
@@ -7645,7 +7645,7 @@
         <v>7</v>
       </c>
       <c r="Q108">
-        <v>101487</v>
+        <v>139256</v>
       </c>
       <c r="R108" t="s">
         <v>8</v>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="T108">
         <f t="shared" si="1"/>
-        <v>8419</v>
+        <v>13012</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
@@ -7681,7 +7681,7 @@
         <v>5</v>
       </c>
       <c r="H109">
-        <v>103491</v>
+        <v>141262</v>
       </c>
       <c r="I109" t="s">
         <v>6</v>
@@ -7705,7 +7705,7 @@
         <v>7</v>
       </c>
       <c r="Q109">
-        <v>112029</v>
+        <v>154151</v>
       </c>
       <c r="R109" t="s">
         <v>8</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="T109">
         <f t="shared" si="1"/>
-        <v>8538</v>
+        <v>12889</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -7741,7 +7741,7 @@
         <v>5</v>
       </c>
       <c r="H110">
-        <v>113964</v>
+        <v>156133</v>
       </c>
       <c r="I110" t="s">
         <v>6</v>
@@ -7765,7 +7765,7 @@
         <v>7</v>
       </c>
       <c r="Q110">
-        <v>123600</v>
+        <v>170755</v>
       </c>
       <c r="R110" t="s">
         <v>8</v>
@@ -7775,13 +7775,13 @@
       </c>
       <c r="T110">
         <f t="shared" si="1"/>
-        <v>9636</v>
+        <v>14622</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="T111" s="2">
         <f>AVERAGE(T101:T110)</f>
-        <v>10368</v>
+        <v>15081.5</v>
       </c>
     </row>
   </sheetData>
@@ -7828,22 +7828,22 @@
         <v>0.1</v>
       </c>
       <c r="B2">
-        <v>76456.7</v>
+        <v>104973.5</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*2*50/1000000</f>
-        <v>7.64567</v>
+        <f>B2*50/1000000</f>
+        <v>5.2486750000000004</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>267.73323985994688</v>
+        <v>390.00319128160913</v>
       </c>
       <c r="E2">
         <v>2047</v>
       </c>
       <c r="G2">
         <f>FLOOR(D2,1)</f>
-        <v>267</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7851,22 +7851,22 @@
         <v>0.2</v>
       </c>
       <c r="B3">
-        <v>39805.800000000003</v>
+        <v>60463.6</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*2*50/1000000</f>
-        <v>3.9805800000000007</v>
+        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
+        <v>3.02318</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>514.2466675710574</v>
+        <v>677.10159500922873</v>
       </c>
       <c r="E3">
         <v>2047</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>514</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7874,22 +7874,22 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>25811.599999999999</v>
+        <v>43438</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>2.5811600000000001</v>
+        <v>2.1718999999999999</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>793.05428567000877</v>
+        <v>942.49274828491184</v>
       </c>
       <c r="E4">
         <v>2047</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>793</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7897,22 +7897,22 @@
         <v>0.4</v>
       </c>
       <c r="B5">
-        <v>23032.400000000001</v>
+        <v>33927.5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>2.3032400000000002</v>
+        <v>1.696375</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>888.74802452197764</v>
+        <v>1206.69073760224</v>
       </c>
       <c r="E5">
         <v>2047</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>888</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7920,22 +7920,22 @@
         <v>0.5</v>
       </c>
       <c r="B6">
-        <v>19203.599999999999</v>
+        <v>26189.1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>1.9203599999999998</v>
+        <v>1.309455</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>1065.9459684642463</v>
+        <v>1563.2457778235982</v>
       </c>
       <c r="E6">
         <v>2047</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>1065</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7943,22 +7943,22 @@
         <v>0.6</v>
       </c>
       <c r="B7">
-        <v>14142.5</v>
+        <v>22037.200000000001</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>1.41425</v>
+        <v>1.1018600000000001</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>1447.4102881385893</v>
+        <v>1857.767774490407</v>
       </c>
       <c r="E7">
         <v>2047</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>1447</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7966,22 +7966,22 @@
         <v>0.7</v>
       </c>
       <c r="B8">
-        <v>15768.5</v>
+        <v>21141.9</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>1.5768500000000001</v>
+        <v>1.0570949999999999</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>1298.1577195040745</v>
+        <v>1936.4390144688984</v>
       </c>
       <c r="E8">
         <v>2047</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>1298</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7989,22 +7989,22 @@
         <v>0.8</v>
       </c>
       <c r="B9">
-        <v>12142.2</v>
+        <v>18922.3</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>1.2142200000000001</v>
+        <v>0.94611500000000004</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>1685.8559404391294</v>
+        <v>2163.5847650655573</v>
       </c>
       <c r="E9">
         <v>2047</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>1685</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -8012,22 +8012,22 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>11105.5</v>
+        <v>16713.599999999999</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>1.1105499999999999</v>
+        <v>0.83567999999999987</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>1843.2308315699429</v>
+        <v>2449.5022017997321</v>
       </c>
       <c r="E10">
         <v>2047</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1843</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8035,22 +8035,22 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>10368</v>
+        <v>15081.5</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0367999999999999</v>
+        <v>0.75407500000000005</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>1974.3441358024693</v>
+        <v>2714.5840930941881</v>
       </c>
       <c r="E11">
         <v>2047</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>1974</v>
+        <v>2714</v>
       </c>
     </row>
   </sheetData>
